--- a/output/raw_data/interest_rate_CN_lpr_1m.xlsx
+++ b/output/raw_data/interest_rate_CN_lpr_1m.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>43685</v>
+        <v>43686</v>
       </c>
       <c r="B2">
         <v>4.31</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>43686</v>
+        <v>43689</v>
       </c>
       <c r="B3">
         <v>4.31</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>43689</v>
+        <v>43690</v>
       </c>
       <c r="B4">
         <v>4.31</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>43690</v>
+        <v>43691</v>
       </c>
       <c r="B5">
         <v>4.31</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>43691</v>
+        <v>43692</v>
       </c>
       <c r="B6">
         <v>4.31</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>43692</v>
+        <v>43693</v>
       </c>
       <c r="B7">
         <v>4.31</v>
@@ -445,23 +445,23 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>43693</v>
+        <v>43697</v>
       </c>
       <c r="B8">
-        <v>4.31</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>43697</v>
+        <v>43728</v>
       </c>
       <c r="B9">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>43728</v>
+        <v>43759</v>
       </c>
       <c r="B10">
         <v>4.2</v>
@@ -469,15 +469,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>43759</v>
+        <v>43789</v>
       </c>
       <c r="B11">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>43789</v>
+        <v>43819</v>
       </c>
       <c r="B12">
         <v>4.15</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>43819</v>
+        <v>43850</v>
       </c>
       <c r="B13">
         <v>4.15</v>
@@ -493,15 +493,15 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B14">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>43881</v>
+        <v>43910</v>
       </c>
       <c r="B15">
         <v>4.05</v>
@@ -509,15 +509,15 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B16">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>43941</v>
+        <v>43971</v>
       </c>
       <c r="B17">
         <v>3.85</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>43971</v>
+        <v>44004</v>
       </c>
       <c r="B18">
         <v>3.85</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>44004</v>
+        <v>44032</v>
       </c>
       <c r="B19">
         <v>3.85</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>44032</v>
+        <v>44063</v>
       </c>
       <c r="B20">
         <v>3.85</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>44063</v>
+        <v>44095</v>
       </c>
       <c r="B21">
         <v>3.85</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>44095</v>
+        <v>44124</v>
       </c>
       <c r="B22">
         <v>3.85</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>44124</v>
+        <v>44155</v>
       </c>
       <c r="B23">
         <v>3.85</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>44155</v>
+        <v>44186</v>
       </c>
       <c r="B24">
         <v>3.85</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>44186</v>
+        <v>44216</v>
       </c>
       <c r="B25">
         <v>3.85</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>44216</v>
+        <v>44247</v>
       </c>
       <c r="B26">
         <v>3.85</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>44247</v>
+        <v>44277</v>
       </c>
       <c r="B27">
         <v>3.85</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>44277</v>
+        <v>44306</v>
       </c>
       <c r="B28">
         <v>3.85</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>44306</v>
+        <v>44336</v>
       </c>
       <c r="B29">
         <v>3.85</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>44336</v>
+        <v>44368</v>
       </c>
       <c r="B30">
         <v>3.85</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>44368</v>
+        <v>44397</v>
       </c>
       <c r="B31">
         <v>3.85</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>44397</v>
+        <v>44428</v>
       </c>
       <c r="B32">
         <v>3.85</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>44428</v>
+        <v>44461</v>
       </c>
       <c r="B33">
         <v>3.85</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>44461</v>
+        <v>44489</v>
       </c>
       <c r="B34">
         <v>3.85</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>44489</v>
+        <v>44522</v>
       </c>
       <c r="B35">
         <v>3.85</v>
@@ -669,23 +669,23 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>44522</v>
+        <v>44550</v>
       </c>
       <c r="B36">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>44550</v>
+        <v>44581</v>
       </c>
       <c r="B37">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>44581</v>
+        <v>44613</v>
       </c>
       <c r="B38">
         <v>3.7</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44613</v>
+        <v>44641</v>
       </c>
       <c r="B39">
         <v>3.7</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>44641</v>
+        <v>44671</v>
       </c>
       <c r="B40">
         <v>3.7</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>44671</v>
+        <v>44701</v>
       </c>
       <c r="B41">
         <v>3.7</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>44701</v>
+        <v>44732</v>
       </c>
       <c r="B42">
         <v>3.7</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>44732</v>
+        <v>44762</v>
       </c>
       <c r="B43">
         <v>3.7</v>
@@ -733,15 +733,15 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>44762</v>
+        <v>44795</v>
       </c>
       <c r="B44">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>44795</v>
+        <v>44824</v>
       </c>
       <c r="B45">
         <v>3.65</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>44824</v>
+        <v>44854</v>
       </c>
       <c r="B46">
         <v>3.65</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>44854</v>
+        <v>44886</v>
       </c>
       <c r="B47">
         <v>3.65</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>44886</v>
+        <v>44915</v>
       </c>
       <c r="B48">
         <v>3.65</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>44915</v>
+        <v>44946</v>
       </c>
       <c r="B49">
         <v>3.65</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>44946</v>
+        <v>44977</v>
       </c>
       <c r="B50">
         <v>3.65</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>44977</v>
+        <v>45005</v>
       </c>
       <c r="B51">
         <v>3.65</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45005</v>
+        <v>45036</v>
       </c>
       <c r="B52">
         <v>3.65</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45036</v>
+        <v>45068</v>
       </c>
       <c r="B53">
         <v>3.65</v>
@@ -813,15 +813,15 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45068</v>
+        <v>45097</v>
       </c>
       <c r="B54">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45097</v>
+        <v>45127</v>
       </c>
       <c r="B55">
         <v>3.55</v>
@@ -829,15 +829,15 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45127</v>
+        <v>45159</v>
       </c>
       <c r="B56">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45159</v>
+        <v>45189</v>
       </c>
       <c r="B57">
         <v>3.45</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45189</v>
+        <v>45219</v>
       </c>
       <c r="B58">
         <v>3.45</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45219</v>
+        <v>45250</v>
       </c>
       <c r="B59">
         <v>3.45</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45250</v>
+        <v>45280</v>
       </c>
       <c r="B60">
         <v>3.45</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45280</v>
+        <v>45313</v>
       </c>
       <c r="B61">
         <v>3.45</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45313</v>
+        <v>45342</v>
       </c>
       <c r="B62">
         <v>3.45</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45342</v>
+        <v>45371</v>
       </c>
       <c r="B63">
         <v>3.45</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45371</v>
+        <v>45404</v>
       </c>
       <c r="B64">
         <v>3.45</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45404</v>
+        <v>45432</v>
       </c>
       <c r="B65">
         <v>3.45</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45432</v>
+        <v>45463</v>
       </c>
       <c r="B66">
         <v>3.45</v>
@@ -917,15 +917,15 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45463</v>
+        <v>45495</v>
       </c>
       <c r="B67">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45495</v>
+        <v>45524</v>
       </c>
       <c r="B68">
         <v>3.35</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45524</v>
+        <v>45555</v>
       </c>
       <c r="B69">
         <v>3.35</v>
@@ -941,15 +941,15 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45555</v>
+        <v>45586</v>
       </c>
       <c r="B70">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45586</v>
+        <v>45616</v>
       </c>
       <c r="B71">
         <v>3.1</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45616</v>
+        <v>45646</v>
       </c>
       <c r="B72">
         <v>3.1</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45646</v>
+        <v>45677</v>
       </c>
       <c r="B73">
         <v>3.1</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45677</v>
+        <v>45708</v>
       </c>
       <c r="B74">
         <v>3.1</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45708</v>
+        <v>45736</v>
       </c>
       <c r="B75">
         <v>3.1</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45736</v>
+        <v>45768</v>
       </c>
       <c r="B76">
         <v>3.1</v>
@@ -997,15 +997,15 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45768</v>
+        <v>45797</v>
       </c>
       <c r="B77">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45797</v>
+        <v>45828</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45828</v>
+        <v>45859</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45859</v>
+        <v>45889</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45889</v>
+        <v>45922</v>
       </c>
       <c r="B81">
         <v>3</v>
